--- a/storage/FileA.xlsx
+++ b/storage/FileA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aansa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\elearning-smaalmultazam\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1096BF-695F-4B73-AD2F-9774E282523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0833EB3-0730-4D98-93A0-E873FD7D2ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{982770DD-FF4C-45B0-AA95-B1D367BF5D3B}"/>
   </bookViews>
@@ -4853,7 +4853,7 @@
   <dimension ref="A1:B4058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4058"/>
+      <selection sqref="A1:B4058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
